--- a/ResultadoEleicoesDistritos/SANTARÉM_RIO MAIOR.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_RIO MAIOR.xlsx
@@ -597,64 +597,64 @@
         <v>5342</v>
       </c>
       <c r="H2" t="n">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I2" t="n">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="J2" t="n">
-        <v>2235</v>
+        <v>2201</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="M2" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N2" t="n">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="T2" t="n">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="U2" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="V2" t="n">
-        <v>3428</v>
+        <v>3420</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3361</v>
+        <v>3346</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
